--- a/WorkGaps/WorkGaps.xlsx
+++ b/WorkGaps/WorkGaps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cody\Source\Repos\WorkGaps\WorkGaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACFEFD1-0E3B-41C4-94DC-F4191455924B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D44023-F5C9-471D-8D6E-E34E39542BC9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="13350" windowHeight="10305" xr2:uid="{D87B9FDE-21D3-4FE6-8203-AA8B9E3AA3A5}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="11865" windowHeight="4260" xr2:uid="{D87B9FDE-21D3-4FE6-8203-AA8B9E3AA3A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,6 +72,90 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1B66F51981759F14C431828E1E0B672EAF2F11"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4154"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1270"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>161926</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>47626</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="_ActiveXWrapper1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,14 +454,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9A8B37-88C7-47E9-8B93-036421B02AAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9A8B37-88C7-47E9-8B93-036421B02AAB}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>